--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 7 Guess Rule 2.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3491,12 +3491,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3575,12 +3575,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3827,12 +3827,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4499,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4835,12 +4835,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5045,12 +5045,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5129,12 +5129,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5927,12 +5927,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6431,12 +6431,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6935,12 +6935,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6977,12 +6977,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7019,12 +7019,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7061,12 +7061,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7145,12 +7145,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7943,12 +7943,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8111,12 +8111,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8321,12 +8321,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
